--- a/Output/RF.xlsx
+++ b/Output/RF.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="confusion_matrix" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="scores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="metrics" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="classification_report" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="scores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="metrics" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,27 +449,21 @@
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3837</v>
+        <v>4105</v>
       </c>
       <c r="C2" t="n">
-        <v>158</v>
+        <v>424</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -477,18 +472,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="C3" t="n">
-        <v>554</v>
+        <v>188</v>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -497,19 +489,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="D4" t="n">
-        <v>236</v>
+        <v>565</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -520,36 +509,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -558,6 +524,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9652010345638373</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2332506203473945</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6686390532544378</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7298850574712644</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.817658349328215</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6492439414092336</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.863535510830055</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8862262521588946</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4676616915422885</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6319910514541387</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7839506172839507</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.817658349328215</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6924574031098182</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.817658349328215</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9240292628024761</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3112582781456954</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.649798734905118</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.755952380952381</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.817658349328215</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6602596642014177</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.836704736652173</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4632</v>
+      </c>
+      <c r="C5" t="n">
+        <v>402</v>
+      </c>
+      <c r="D5" t="n">
+        <v>894</v>
+      </c>
+      <c r="E5" t="n">
+        <v>324</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.817658349328215</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6252</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -581,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8694817658349329</v>
+        <v>0.8441247002398081</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8704414587332053</v>
+        <v>0.8553157474020784</v>
       </c>
     </row>
     <row r="4">
@@ -597,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8752399232245681</v>
+        <v>0.8448</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8618042226487524</v>
+        <v>0.8344</v>
       </c>
     </row>
     <row r="6">
@@ -613,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8742802303262955</v>
+        <v>0.8352000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -647,7 +781,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8666173269278759</v>
+        <v>0.9249199917350103</v>
       </c>
     </row>
     <row r="3">
@@ -657,7 +791,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8920181881934647</v>
+        <v>0.836704736652173</v>
       </c>
     </row>
     <row r="4">
@@ -667,7 +801,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8702495201535509</v>
+        <v>0.8427680895283773</v>
       </c>
     </row>
   </sheetData>

--- a/Output/RF.xlsx
+++ b/Output/RF.xlsx
@@ -455,16 +455,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4105</v>
+        <v>4120</v>
       </c>
       <c r="C2" t="n">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -472,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C3" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D3" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D4" t="n">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="E4" t="n">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E5" t="n">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -581,25 +581,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9652010345638373</v>
+        <v>0.9682726204465335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2332506203473945</v>
+        <v>0.2483829236739974</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6686390532544378</v>
+        <v>0.6614872364039955</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7298850574712644</v>
+        <v>0.7554179566563467</v>
       </c>
       <c r="F2" t="n">
-        <v>0.817658349328215</v>
+        <v>0.8240563019833653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6492439414092336</v>
+        <v>0.6583901842952182</v>
       </c>
       <c r="H2" t="n">
-        <v>0.863535510830055</v>
+        <v>0.8670847281713241</v>
       </c>
     </row>
     <row r="3">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8862262521588946</v>
+        <v>0.8894645941278065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4676616915422885</v>
+        <v>0.4776119402985075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6319910514541387</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7839506172839507</v>
+        <v>0.7530864197530864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.817658349328215</v>
+        <v>0.8240563019833653</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6924574031098182</v>
+        <v>0.6967074052115168</v>
       </c>
       <c r="H3" t="n">
-        <v>0.817658349328215</v>
+        <v>0.8240563019833653</v>
       </c>
     </row>
     <row r="4">
@@ -637,25 +637,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9240292628024761</v>
+        <v>0.9271970293687408</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3112582781456954</v>
+        <v>0.3268085106382979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.649798734905118</v>
+        <v>0.6640668523676879</v>
       </c>
       <c r="E4" t="n">
-        <v>0.755952380952381</v>
+        <v>0.7542503863987634</v>
       </c>
       <c r="F4" t="n">
-        <v>0.817658349328215</v>
+        <v>0.8240563019833653</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6602596642014177</v>
+        <v>0.6680806946933725</v>
       </c>
       <c r="H4" t="n">
-        <v>0.836704736652173</v>
+        <v>0.8420036072492828</v>
       </c>
     </row>
     <row r="5">
@@ -677,7 +677,7 @@
         <v>324</v>
       </c>
       <c r="F5" t="n">
-        <v>0.817658349328215</v>
+        <v>0.8240563019833653</v>
       </c>
       <c r="G5" t="n">
         <v>6252</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9249199917350103</v>
+        <v>0.9284737286903099</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.836704736652173</v>
+        <v>0.8420036072492828</v>
       </c>
     </row>
     <row r="4">

--- a/Output/RF.xlsx
+++ b/Output/RF.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4120</v>
+        <v>4142</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="D2" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -472,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D3" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" t="n">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +506,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -581,25 +581,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9682726204465335</v>
+        <v>0.9679831736387007</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2483829236739974</v>
+        <v>0.2537112010796221</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6614872364039955</v>
+        <v>0.6577777777777778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7554179566563467</v>
+        <v>0.7409638554216867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8240563019833653</v>
+        <v>0.8266154830454254</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6583901842952182</v>
+        <v>0.6551090019794469</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8670847281713241</v>
+        <v>0.8659333950125447</v>
       </c>
     </row>
     <row r="3">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8894645941278065</v>
+        <v>0.8942141623488774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4776119402985075</v>
+        <v>0.4676616915422885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6621923937360179</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7530864197530864</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8240563019833653</v>
+        <v>0.8266154830454254</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6967074052115168</v>
+        <v>0.6958318767216107</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8240563019833653</v>
+        <v>0.8266154830454254</v>
       </c>
     </row>
     <row r="4">
@@ -637,25 +637,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9271970293687408</v>
+        <v>0.929637526652452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3268085106382979</v>
+        <v>0.3289588801399825</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6640668523676879</v>
+        <v>0.6599777034559643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7542503863987634</v>
+        <v>0.75</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8240563019833653</v>
+        <v>0.8266154830454254</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6680806946933725</v>
+        <v>0.6671435275620997</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8420036072492828</v>
+        <v>0.8431450032245782</v>
       </c>
     </row>
     <row r="5">
@@ -677,7 +677,7 @@
         <v>324</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8240563019833653</v>
+        <v>0.8266154830454254</v>
       </c>
       <c r="G5" t="n">
         <v>6252</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9284737286903099</v>
+        <v>0.9288922260203737</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8420036072492828</v>
+        <v>0.8431450032245782</v>
       </c>
     </row>
     <row r="4">
